--- a/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_3/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_3/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.231</v>
+        <v>0.523</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.787</v>
+        <v>17.962</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.64</v>
+        <v>-1.163</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.447</v>
+        <v>25.774</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.446</v>
+        <v>0.887</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.263</v>
+        <v>9.619</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>13.59132666771858</v>
+        <v>4.909047059761335</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>27.51784061490888</v>
+        <v>15.12203032035966</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>31.52669081019521</v>
+        <v>18.38935632813114</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>14.67212816842269</v>
+        <v>-3.853513004075538</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>29.15378962497772</v>
+        <v>20.40164705154429</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>33.43169203168093</v>
+        <v>25.12966178387752</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>19.09495945842043</v>
+        <v>-2.362032928433976</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>32.48760567737853</v>
+        <v>33.35073422616712</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>36.46627727346369</v>
+        <v>36.84150850288482</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>37.74949548623624</v>
+        <v>35.0234815839019</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>42.40689163183769</v>
+        <v>39.82615656490965</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>44.45129612390129</v>
+        <v>44.45627242280456</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>29.4703064304013</v>
+        <v>8.287026815948977</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>42.636419792144</v>
+        <v>30.37778768547547</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>46.43688248654032</v>
+        <v>40.15521999965306</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>19.38431213594072</v>
+        <v>19.758978976199</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>33.47993940247702</v>
+        <v>33.42076963338353</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>37.57877524212283</v>
+        <v>43.7107216282689</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>20.42564379413488</v>
+        <v>9.771083496538083</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>35.09249852205438</v>
+        <v>33.3659770533766</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>39.46256410560729</v>
+        <v>44.78548666047958</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>24.98708796762029</v>
+        <v>9.389890274427657</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>38.55078678599892</v>
+        <v>47.59879367836173</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>42.61439592417997</v>
+        <v>63.15123584718928</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>43.83121509835557</v>
+        <v>45.43595722209891</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>48.56123542795267</v>
+        <v>54.86039258611125</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>50.65905583761077</v>
+        <v>62.57650824180111</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>35.50564028997208</v>
+        <v>22.94043444435245</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>48.85301280492811</v>
+        <v>60.07429763273704</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>52.73022384846007</v>
+        <v>68.98514164718803</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>28.90969500597515</v>
+        <v>23.49700952730869</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>42.91609485818478</v>
+        <v>43.64761871714931</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>46.98608881319696</v>
+        <v>52.09752867752813</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>30.50022575999541</v>
+        <v>10.63795645845484</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>45.07419800951845</v>
+        <v>43.72009858672773</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>49.41733599778069</v>
+        <v>52.08981635369834</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>35.07644509114213</v>
+        <v>12.98485722966437</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>48.55273585799139</v>
+        <v>61.63529708528172</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>52.59052814946195</v>
+        <v>74.48417848621104</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>54.19585965012352</v>
+        <v>70.62123980075104</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>58.89088600293867</v>
+        <v>79.68576522616497</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>60.96999644468725</v>
+        <v>90.01948268230446</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>45.83877769835453</v>
+        <v>30.71741728368907</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>59.10990828034305</v>
+        <v>77.92989979709911</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>62.96127765566072</v>
+        <v>87.71583257455164</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>11.65322047654345</v>
+        <v>16.38743191794019</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>25.77344688693565</v>
+        <v>36.21335698385302</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>29.73516919970398</v>
+        <v>38.37173770417446</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>12.74822389075267</v>
+        <v>12.10149348872373</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>27.43272933919326</v>
+        <v>43.05072264597582</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>31.66291251809172</v>
+        <v>47.50314551219567</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>17.1465192872717</v>
+        <v>14.04020253748736</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>30.72952832709972</v>
+        <v>60.57867114084105</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>34.6629773908555</v>
+        <v>61.78102981509805</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>35.86586723518921</v>
+        <v>62.4560664120964</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>40.58236246005739</v>
+        <v>70.82796818445222</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>42.59457290436283</v>
+        <v>71.58357902255689</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>27.46231224659028</v>
+        <v>19.87181652497959</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>40.81053145864627</v>
+        <v>55.81345521368446</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>44.56180096755062</v>
+        <v>61.28949405167519</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>17.39124704505046</v>
+        <v>17.18023252657106</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>31.68207425835204</v>
+        <v>39.16126701599039</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>35.73114198431011</v>
+        <v>47.84749377975056</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>18.44447615899666</v>
+        <v>8.437093863135985</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>33.31579266324449</v>
+        <v>38.10416467006421</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>37.63521426742749</v>
+        <v>48.60472225226444</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>22.98381529637395</v>
+        <v>9.469261201888102</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>36.7393485056712</v>
+        <v>57.19368856244115</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>40.75506608436173</v>
+        <v>69.69359263423526</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>41.89402118941321</v>
+        <v>54.18107560441096</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>46.68321054404851</v>
+        <v>66.7916074073262</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>48.74759988445797</v>
+        <v>70.06448825050397</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>33.44477772330329</v>
+        <v>18.27250039864752</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>46.97526845658798</v>
+        <v>67.53024868305111</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>50.80103586658274</v>
+        <v>71.85462651790716</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>26.92937774664401</v>
+        <v>17.85022369404744</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>41.12728456040297</v>
+        <v>47.7644355081846</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>45.14850340990877</v>
+        <v>53.9827235412253</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>28.53271371357107</v>
+        <v>6.352308643190085</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>43.30711348484743</v>
+        <v>47.39606109933003</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>47.60092390154735</v>
+        <v>54.03626857390545</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>33.08481201717173</v>
+        <v>10.14219057343796</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>46.74927459119078</v>
+        <v>69.66713438714105</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>50.74032721565626</v>
+        <v>78.77017003992243</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>52.27185461834017</v>
+        <v>76.31738237066817</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>57.0252219252999</v>
+        <v>89.35734071820873</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>59.07175044082385</v>
+        <v>94.35220400408191</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>43.7946796690762</v>
+        <v>22.71513143623262</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>57.24514278512296</v>
+        <v>84.42212117391297</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>61.04623897010212</v>
+        <v>88.32394670916146</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>11.58202652448522</v>
+        <v>19.03537222134234</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>25.70630922019047</v>
+        <v>36.91925376349205</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>29.6633998722666</v>
+        <v>37.16708336304139</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>12.67315612953758</v>
+        <v>12.54870480217987</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>27.36149169408984</v>
+        <v>41.72244475945065</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>31.58671410420984</v>
+        <v>44.40447694361116</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>17.07321222309187</v>
+        <v>13.77301826538231</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>30.65980567110774</v>
+        <v>58.78607714289426</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>34.58859102111347</v>
+        <v>57.5538520236319</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>35.80163702382892</v>
+        <v>60.78974632677985</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>40.51916095639409</v>
+        <v>67.9018637760848</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>42.52989813535156</v>
+        <v>68.30775003703992</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>27.3969456946689</v>
+        <v>22.85311103253726</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>40.74843325862771</v>
+        <v>54.08524877889057</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>44.49589043389252</v>
+        <v>58.03144699970797</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>17.34912671960328</v>
+        <v>25.05853937778436</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>31.64421107556349</v>
+        <v>45.56878640976309</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>35.68854941730122</v>
+        <v>52.15483815598388</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>18.39886274401396</v>
+        <v>14.18493092654059</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>33.27420712147749</v>
+        <v>42.66421841879846</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>37.58857556631745</v>
+        <v>51.12221618793727</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>22.94013399287466</v>
+        <v>14.58336386819987</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>36.69943894053487</v>
+        <v>61.28401079115575</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>40.71040173309525</v>
+        <v>71.159203193078</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>41.85945715183284</v>
+        <v>58.94732811402902</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>46.64968749755904</v>
+        <v>70.14474676867793</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>48.71257901269492</v>
+        <v>72.71503126100471</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>33.40883922772097</v>
+        <v>26.88428054893085</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>46.94277335841266</v>
+        <v>71.5950343365085</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>50.76466121684761</v>
+        <v>74.30428069533558</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>26.89479301819436</v>
+        <v>27.18848335004559</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>41.09703435590512</v>
+        <v>55.780424020322</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>45.11351312529811</v>
+        <v>60.00212797317245</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>28.49537241417907</v>
+        <v>13.43911430933191</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>43.27389354417974</v>
+        <v>53.49273895113528</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>47.56263677209618</v>
+        <v>58.21555542700359</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>33.04930703806749</v>
+        <v>16.67007815292867</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>46.71762783933731</v>
+        <v>75.3464723975366</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>50.70391125839961</v>
+        <v>81.94287207271491</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>52.24556958321457</v>
+        <v>83.03362005809809</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>57.00004662978683</v>
+        <v>94.65001344946414</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>59.04505202566423</v>
+        <v>98.98814953443268</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>43.76696575381969</v>
+        <v>33.47367517718097</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>57.22093515803094</v>
+        <v>90.81413474879561</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>61.0181339876754</v>
+        <v>93.22419328443964</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>11.42372785622856</v>
+        <v>10.46201924287782</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>25.34009635823274</v>
+        <v>18.81628703675143</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>29.3352022401182</v>
+        <v>20.75533897818154</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>12.43735074276723</v>
+        <v>2.436092062467239</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>26.90823013768448</v>
+        <v>23.95921088614459</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>31.17148524221182</v>
+        <v>27.51129696114215</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>16.84561484941047</v>
+        <v>3.30972046486842</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>30.22835017592729</v>
+        <v>36.60285574828562</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>34.19330043548096</v>
+        <v>38.71848898021513</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>35.47086293677861</v>
+        <v>36.42792838161141</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>40.12536874822436</v>
+        <v>40.60775596263058</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>42.16439843291804</v>
+        <v>45.85594113950243</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>27.20982303604921</v>
+        <v>18.06034346600318</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>40.36549525090856</v>
+        <v>35.74318817835733</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>44.15225109729373</v>
+        <v>44.14372963436482</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>17.21304640959297</v>
+        <v>20.29914303862382</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>31.29884434495876</v>
+        <v>31.95624016204688</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>35.38363382572749</v>
+        <v>40.66292480975473</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>18.18719419815122</v>
+        <v>10.92949700683845</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>32.84358892219934</v>
+        <v>31.67939504659809</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>37.19868689215918</v>
+        <v>41.71205185353666</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>22.73390065878642</v>
+        <v>9.805727803236763</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>36.28799492091553</v>
+        <v>45.4485689894142</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>40.33758651034834</v>
+        <v>59.31181854909833</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>41.54858829872725</v>
+        <v>40.94720155047635</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>46.27578371624695</v>
+        <v>49.91584998000967</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>48.3680902602371</v>
+        <v>57.84976741598926</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>33.24091945675031</v>
+        <v>26.27476165339694</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>46.57807568634126</v>
+        <v>58.85354103463327</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>50.44130683016127</v>
+        <v>65.83602984124271</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>26.77608265496611</v>
+        <v>25.30460360010697</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>40.77275343435363</v>
+        <v>43.15296954945806</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>44.82876821052558</v>
+        <v>50.11460500912843</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>28.29878610326891</v>
+        <v>12.76568935530598</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>42.86238378483145</v>
+        <v>42.68932085266057</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>47.19064065682483</v>
+        <v>49.74339293192135</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>32.86094961376889</v>
+        <v>14.660727776092</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>46.32771674122313</v>
+        <v>60.45391181208511</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>50.35156079642373</v>
+        <v>71.71898716423105</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>51.95058187635335</v>
+        <v>67.4428237328808</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>56.64288344225217</v>
+        <v>76.04510508298382</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>58.71668773013813</v>
+        <v>86.48893696291189</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>43.61107148056539</v>
+        <v>35.48876808167232</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>56.87204390504802</v>
+        <v>77.74764023758262</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>60.70952819663422</v>
+        <v>85.59956292578867</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>16.2790127131673</v>
+        <v>21.71036701668849</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>30.22123927003113</v>
+        <v>38.21155523732561</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>34.19456139894105</v>
+        <v>39.17020147853735</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>17.38739566606717</v>
+        <v>13.04629859209756</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>31.88633428534572</v>
+        <v>43.59134415855546</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>36.12642579953314</v>
+        <v>46.2661901847447</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>21.80568818204225</v>
+        <v>16.20998665020493</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>35.21468687224692</v>
+        <v>59.29828721403409</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>39.15802911586407</v>
+        <v>60.18422294333435</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>40.43052642941676</v>
+        <v>59.31278425328422</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>45.08899974161761</v>
+        <v>65.03781843371338</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>47.11812035295623</v>
+        <v>68.38038668723256</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>32.13174545654999</v>
+        <v>27.13339294771338</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>45.30882195818051</v>
+        <v>50.59348931494013</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>49.07566556699322</v>
+        <v>58.23630031157579</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>22.09559595111316</v>
+        <v>30.19637379660749</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>36.20629133284991</v>
+        <v>50.14624606948426</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>40.26823627548802</v>
+        <v>57.50309756000733</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>23.16393992422786</v>
+        <v>19.15863268684068</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>37.8473414540485</v>
+        <v>49.23768214121721</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>42.17814464660203</v>
+        <v>57.96583648306772</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>27.72068780871251</v>
+        <v>20.40113603813323</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>41.30006445705779</v>
+        <v>66.04467365196909</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>45.32700357634188</v>
+        <v>78.25317239089672</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>46.53479371875467</v>
+        <v>63.27604579681876</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>51.2656224210066</v>
+        <v>73.41509864811208</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>53.34762067598395</v>
+        <v>79.41770021732829</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>38.19026793324556</v>
+        <v>36.34993098030323</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>51.5479720700976</v>
+        <v>75.08975983183335</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>55.39035036567957</v>
+        <v>80.94281194131237</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>31.47469204221836</v>
+        <v>29.1395714428479</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>45.49530646672832</v>
+        <v>55.08929567700959</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>49.52882725926354</v>
+        <v>60.79587371776147</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>33.08896563120653</v>
+        <v>14.95298174317817</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>47.67858016715304</v>
+        <v>53.9926113471558</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>51.98288093698435</v>
+        <v>59.84007958728206</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>37.65995271465147</v>
+        <v>18.90751175944159</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>51.15109664687236</v>
+        <v>74.4626375292025</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>55.1525965444341</v>
+        <v>84.20392991694168</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>56.74757685550844</v>
+        <v>82.99909309800559</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>61.44333758731052</v>
+        <v>92.66274553694093</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>63.50693112977274</v>
+        <v>101.2044558304816</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>48.3728749706157</v>
+        <v>38.71575435648548</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>61.65367913807273</v>
+        <v>87.33792555635297</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>65.47059800623157</v>
+        <v>94.0186978785017</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>8.708763314374607</v>
+        <v>15.7047558058333</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>22.59117867638409</v>
+        <v>37.29408942880401</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>26.473392745865</v>
+        <v>36.77117515313883</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>9.724703488416253</v>
+        <v>10.26054562801217</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>24.15989453337108</v>
+        <v>44.4370032135573</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>28.30723898710362</v>
+        <v>45.26404161309371</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>14.03549674638379</v>
+        <v>12.50355452913503</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>27.38833078911781</v>
+        <v>61.91084196573853</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>31.24413676331161</v>
+        <v>59.95787442797673</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>32.4425209144351</v>
+        <v>58.59493259440119</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>37.07789129469778</v>
+        <v>68.06575333356982</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>39.0525646119676</v>
+        <v>68.78390618846059</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>24.19257521976369</v>
+        <v>17.89841940889475</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>37.30889125161364</v>
+        <v>47.82004054093373</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>40.98707087369599</v>
+        <v>51.85966465219865</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>14.63664680514378</v>
+        <v>24.34420767596386</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>28.68893929108462</v>
+        <v>50.02259118100581</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>32.65653141849604</v>
+        <v>55.16786752053336</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>15.61558591421078</v>
+        <v>13.58768272070337</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>30.236695689634</v>
+        <v>48.58978787566683</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>34.47122610585338</v>
+        <v>54.70802605530896</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>20.06575450507195</v>
+        <v>15.05956140075433</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>33.5903361775532</v>
+        <v>67.77531164888983</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>37.5265132870686</v>
+        <v>76.13023273861084</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>38.66206515451682</v>
+        <v>61.20143435497589</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>43.36964670370045</v>
+        <v>75.12943011671648</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>45.39530555793421</v>
+        <v>77.99065005842094</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>30.36536980318364</v>
+        <v>27.89698687229283</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>43.66309767126194</v>
+        <v>73.93618015948239</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>47.41399998683539</v>
+        <v>76.01975993431525</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>24.17789907385444</v>
+        <v>23.29575040385843</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>38.14044445158318</v>
+        <v>55.57095935061061</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>42.0806357554152</v>
+        <v>58.68662570631396</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>25.70073056739194</v>
+        <v>9.658018621201833</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>40.22827237788687</v>
+        <v>54.38856612622264</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>44.43767790274471</v>
+        <v>57.13515535507345</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>30.16466114396311</v>
+        <v>13.57329038318109</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>43.60130395802499</v>
+        <v>76.63550716597591</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>47.51324450028761</v>
+        <v>82.13552609323732</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>49.0339990667923</v>
+        <v>80.20016094085467</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>53.7065198329141</v>
+        <v>94.07449163055567</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>55.71491372603447</v>
+        <v>98.66721047612809</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>40.70833989335772</v>
+        <v>29.49494919640212</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>53.92904252660595</v>
+        <v>86.72870717894087</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>57.65568313029479</v>
+        <v>88.56351884124332</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>4.83937074685236</v>
+        <v>-0.09610403025716607</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>18.69660530065661</v>
+        <v>7.19048495366043</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>22.62894919387751</v>
+        <v>10.1260944142319</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>5.798117721710383</v>
+        <v>-5.714644455866889</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>20.20547094926722</v>
+        <v>14.33814774513733</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>24.40608030272911</v>
+        <v>18.57044850864749</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>10.11639357546894</v>
+        <v>-5.120481787902023</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>23.44304241291812</v>
+        <v>27.44555321820904</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>27.34860390934651</v>
+        <v>29.4023010701098</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>28.55714654873022</v>
+        <v>28.69673685233049</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>33.19006449887758</v>
+        <v>35.38841395080435</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>35.18713418501115</v>
+        <v>37.35861628297992</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>20.33590024328387</v>
+        <v>2.739593661333103</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>33.43369851644611</v>
+        <v>23.17759443728504</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>37.15907091867343</v>
+        <v>30.09310167691312</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>10.74738946434668</v>
+        <v>16.44093247337402</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>24.77563729753199</v>
+        <v>27.46909660919842</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>28.79545346145314</v>
+        <v>37.36660222614556</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>11.67033533576338</v>
+        <v>7.471602386472583</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>26.26486426842463</v>
+        <v>27.7315927998154</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>30.55489918530743</v>
+        <v>38.51494280479399</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>16.12819334988457</v>
+        <v>7.47698240965282</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>29.62775432939929</v>
+        <v>42.87913680690228</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>33.61575598959796</v>
+        <v>56.6600668354133</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>34.75884123330019</v>
+        <v>39.06743785253256</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>39.4643851293182</v>
+        <v>50.23901149697978</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>41.51328754092555</v>
+        <v>54.89232322658729</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>26.48975889041382</v>
+        <v>18.24324946505307</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>39.77004984224965</v>
+        <v>53.42380321175317</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>43.57001602644343</v>
+        <v>60.10024671798799</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>20.49053071575005</v>
+        <v>23.58795191461677</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>34.43032622960084</v>
+        <v>42.46308811632939</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>38.42221937453436</v>
+        <v>50.19837208879663</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>21.96217156190892</v>
+        <v>12.25530723302306</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>36.46451742937383</v>
+        <v>43.58905941005257</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>40.72889101960079</v>
+        <v>50.95890683810826</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>26.43451544055768</v>
+        <v>15.1139059715256</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>39.84739936018233</v>
+        <v>62.21059279071072</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>43.81068984678092</v>
+        <v>72.93326022257268</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>45.34059147123935</v>
+        <v>68.48722708566349</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>50.01121953912086</v>
+        <v>80.03809590195779</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>52.04247653911339</v>
+        <v>86.81562708864151</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>37.04063444444914</v>
+        <v>30.69832072647002</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>50.2448741882794</v>
+        <v>77.66025022890524</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>54.02012878233494</v>
+        <v>84.81262480111572</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>13.96195676198519</v>
+        <v>-0.3819474735610271</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>28.06350879856776</v>
+        <v>4.83699826215134</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>32.08002825423328</v>
+        <v>8.552476150161326</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>15.04511864198246</v>
+        <v>-7.573788924158876</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>29.70917260746942</v>
+        <v>10.24274283631816</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>33.99603336620572</v>
+        <v>15.61012469056082</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>19.48943054342734</v>
+        <v>-8.005843231639872</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>33.05152355141099</v>
+        <v>22.23796647456696</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>37.03815764778742</v>
+        <v>26.08315562814043</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>38.29814036868675</v>
+        <v>21.46015440671611</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>43.01041657589877</v>
+        <v>25.13411352507056</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>45.06061402453439</v>
+        <v>30.34414975757515</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>29.90615164383286</v>
+        <v>-1.307410664540313</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>43.23405887283813</v>
+        <v>11.41603476598401</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>47.04075057397363</v>
+        <v>20.58889001135834</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>19.85109500500175</v>
+        <v>0.3028504225971602</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>34.12398727963793</v>
+        <v>8.493757948458935</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>38.23007065278398</v>
+        <v>18.98516552211872</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>20.89456036973921</v>
+        <v>-9.308519235771868</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>35.74620128817335</v>
+        <v>7.604115925032616</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>40.12471387437891</v>
+        <v>19.30987937347395</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>25.47898595828382</v>
+        <v>-11.59530238001845</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>39.21434135033853</v>
+        <v>20.66836081094486</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>43.28545069589022</v>
+        <v>36.24779392759159</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>44.47958193142815</v>
+        <v>16.26067276409118</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>49.26523003767481</v>
+        <v>24.67490868691893</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>51.36883758476455</v>
+        <v>32.76182424992383</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>36.04097936084257</v>
+        <v>-1.742191881093945</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>49.55233826503856</v>
+        <v>25.63136781158893</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>53.43536149680733</v>
+        <v>33.26700235471479</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>29.40896248977673</v>
+        <v>6.191872599804682</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>43.59087487831455</v>
+        <v>20.72320733280107</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>47.66843743314654</v>
+        <v>30.0687406789031</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>31.00533255193662</v>
+        <v>-6.394401518823216</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>45.76222772903341</v>
+        <v>19.91795422596458</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>50.11423476959268</v>
+        <v>29.26833473449581</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>35.60421897864948</v>
+        <v>-5.741449723634517</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>49.25045822861004</v>
+        <v>36.78132022447853</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>53.2960954598009</v>
+        <v>50.42535197959997</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>54.88191811973673</v>
+        <v>43.36253633464572</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>59.63208744813636</v>
+        <v>51.69044930878697</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>61.71737049490137</v>
+        <v>62.64447916373923</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>46.41265680120269</v>
+        <v>7.879168467114297</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>59.84620251227956</v>
+        <v>45.5125560716241</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>63.70376219180562</v>
+        <v>54.51443038011782</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>12.43875726156597</v>
+        <v>15.2535150014899</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>26.45988592675948</v>
+        <v>36.63730956018709</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>30.39236918807563</v>
+        <v>39.23734552224657</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>13.57776559539456</v>
+        <v>11.50304069321091</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>28.15674361953514</v>
+        <v>47.05503056031695</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>32.35755526702432</v>
+        <v>50.00352048100017</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>17.94632700208411</v>
+        <v>14.48258959221131</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>31.43203567621152</v>
+        <v>64.39530021991361</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>35.33780209911637</v>
+        <v>65.48930277539289</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>36.56669757823624</v>
+        <v>67.59724665545276</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>41.24835847690712</v>
+        <v>75.48598019025725</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>43.24592307705307</v>
+        <v>75.59817773478169</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>28.21804908890796</v>
+        <v>24.15912381392793</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>41.4672195712308</v>
+        <v>60.87468105805057</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>45.19415065740606</v>
+        <v>66.70482130021706</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>18.25365439543334</v>
+        <v>11.89955499494563</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>32.44511318840805</v>
+        <v>36.10677791209271</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>36.46397726603904</v>
+        <v>44.44718928864499</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>19.35187520710058</v>
+        <v>2.084962930012821</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>34.11733286432524</v>
+        <v>36.99392498082885</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>38.40637430548541</v>
+        <v>45.28954922583337</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>23.86090724473551</v>
+        <v>4.261589164967504</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>37.5188585740819</v>
+        <v>56.03240038691804</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>41.5059561606702</v>
+        <v>67.6506397556483</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>42.67076368379423</v>
+        <v>53.87536042983972</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>47.42496362327674</v>
+        <v>65.79763734306947</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>49.4740919720077</v>
+        <v>68.2198455283857</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>34.27609010674795</v>
+        <v>17.7969981492604</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>47.70735374803226</v>
+        <v>68.41688846097729</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>51.50785175406626</v>
+        <v>72.239604489689</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>27.76914973543775</v>
+        <v>12.49002575930238</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>41.86943121085752</v>
+        <v>44.14086499996132</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>45.86004446872786</v>
+        <v>50.17879627044626</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>29.41605085338941</v>
+        <v>0.3121678856651755</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>44.08646452700084</v>
+        <v>45.98695133008415</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>48.34946256574614</v>
+        <v>50.65050049529593</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>33.93787087910859</v>
+        <v>4.894411951682557</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>47.50649724374446</v>
+        <v>67.90919152401513</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>51.46851366745285</v>
+        <v>76.321709977456</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>53.02321915772383</v>
+        <v>75.49746699891729</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>57.74182488644639</v>
+        <v>87.59621918169101</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>59.77313449202633</v>
+        <v>91.71002481978861</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>44.6001118451575</v>
+        <v>22.00445191885281</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>57.95302480054833</v>
+        <v>84.6150166123049</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>61.7284232968793</v>
+        <v>88.31433282254044</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>3.837122230154019</v>
+        <v>1.288188350252696</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>17.73886769772967</v>
+        <v>6.299313316909902</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>21.69641071699228</v>
+        <v>11.23231850824651</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>4.770936530438778</v>
+        <v>-5.794482245323607</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>19.22730468834702</v>
+        <v>10.05555319524588</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>23.45323549726539</v>
+        <v>17.42632169134619</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>9.103283353425986</v>
+        <v>-5.399494516883621</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>22.47499026385202</v>
+        <v>23.11776719553366</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>26.4043244573178</v>
+        <v>27.7832107686276</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>27.58228733797247</v>
+        <v>23.45828258565494</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>32.23277175806163</v>
+        <v>29.59316193406023</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>34.24159147503623</v>
+        <v>34.07609175911379</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>19.3375774678112</v>
+        <v>-0.3427923295309796</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>32.48376297154527</v>
+        <v>18.13390301853643</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>36.2295315007148</v>
+        <v>26.96874683705344</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>9.633786574172724</v>
+        <v>8.243117471441664</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>23.70608440403485</v>
+        <v>16.02462878791597</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>27.75183383970342</v>
+        <v>28.78057805614075</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>10.53122154169309</v>
+        <v>-1.537953626107694</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>25.17431124823887</v>
+        <v>13.68060195238432</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>29.49044434183041</v>
+        <v>28.3193144649865</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>15.00324863148266</v>
+        <v>-2.01247543063873</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>28.54742246855074</v>
+        <v>28.32097640357004</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>32.55991844612311</v>
+        <v>45.68208472334099</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>33.67275619290157</v>
+        <v>23.4410626237436</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>38.39573755128672</v>
+        <v>34.08749216580482</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>40.45687869625718</v>
+        <v>41.81503787364578</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>25.38089015641548</v>
+        <v>4.724273523445774</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>38.70898476949735</v>
+        <v>36.64456902672781</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>42.53012536709866</v>
+        <v>46.21332199691678</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>19.35469944900071</v>
+        <v>13.90632275150402</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>33.33685865977333</v>
+        <v>29.48153649140038</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>37.35576835524935</v>
+        <v>40.33705926850111</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>20.79934322763384</v>
+        <v>1.468005293041429</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>35.34843752709696</v>
+        <v>27.74718495749111</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>39.64005483394288</v>
+        <v>39.13816687492407</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>25.28559014402594</v>
+        <v>3.901555607755213</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>38.74140982068955</v>
+        <v>45.85056743706268</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>42.73027404990596</v>
+        <v>60.45580539371547</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>44.2308205327662</v>
+        <v>50.69770922067072</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>48.91882087891366</v>
+        <v>61.90519866731712</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>50.96255851083001</v>
+        <v>72.40449004728735</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>35.90910004745656</v>
+        <v>15.21511720989243</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>49.15954228487574</v>
+        <v>58.68474463904074</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>52.95704588695787</v>
+        <v>68.84774505192503</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>8.883333820959844</v>
+        <v>-4.487509404169046</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>22.90522353290065</v>
+        <v>9.858942897973051</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>26.82390977904109</v>
+        <v>8.262912084782542</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>9.873682372754079</v>
+        <v>-10.95312650473717</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>24.45614733521442</v>
+        <v>12.96462632805996</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>28.64034812934421</v>
+        <v>14.70311041049372</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>14.23014981836575</v>
+        <v>-11.55404564334789</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>27.71886733011676</v>
+        <v>28.77143528076265</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>31.6093502632831</v>
+        <v>25.76411318670468</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>32.79336966953797</v>
+        <v>27.30268118369234</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>37.47670147868989</v>
+        <v>33.39753288590911</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>39.47031474441449</v>
+        <v>34.29940189297177</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>24.46068433326299</v>
+        <v>-5.31549616758754</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>37.71411372635018</v>
+        <v>17.52205258010467</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>41.42403457483542</v>
+        <v>20.42208718942372</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>14.7433740249758</v>
+        <v>18.856767532441</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>28.93579119397206</v>
+        <v>36.68715926123518</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>32.94100369828785</v>
+        <v>41.3331765540167</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>15.69543091689771</v>
+        <v>8.88213689512294</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>30.46454991402954</v>
+        <v>33.11946089720858</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>34.73714718006067</v>
+        <v>40.53508163225304</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>20.19222651810595</v>
+        <v>7.74437469605077</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>33.85334518644325</v>
+        <v>50.7604323422154</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>37.82531746065581</v>
+        <v>58.64048828238616</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>38.94639821117702</v>
+        <v>46.20174904635248</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>43.70220874646976</v>
+        <v>56.6370493901331</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>45.747571540647</v>
+        <v>59.51957997220153</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>30.56722637929519</v>
+        <v>18.86799063937319</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>44.0026381440183</v>
+        <v>56.59223242567059</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>47.78639117401015</v>
+        <v>58.19989626099114</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>24.30286575736123</v>
+        <v>24.08903101882758</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>38.40345989205053</v>
+        <v>49.61152242600748</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>42.38153187388056</v>
+        <v>52.02410533738824</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>25.80185845453732</v>
+        <v>11.05541556293373</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>40.47520448993</v>
+        <v>46.36030182611508</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>44.72294904339284</v>
+        <v>50.16747706618925</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>30.31208421147143</v>
+        <v>12.90912734067611</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>43.88320637684028</v>
+        <v>67.48262694690719</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>47.83121058874941</v>
+        <v>72.25473491299086</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>49.34125646447733</v>
+        <v>73.09770037289208</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>54.06172299731986</v>
+        <v>83.91937239931231</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>56.08964363171894</v>
+        <v>88.55172439957688</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>40.93375085950957</v>
+        <v>28.34547206990119</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>54.29014957270843</v>
+        <v>78.31402180004308</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>58.04992725125726</v>
+        <v>79.48768843967703</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>4.687344078147422</v>
+        <v>5.48413836613436</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>18.60785601823741</v>
+        <v>9.793788825290321</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>22.54335605700604</v>
+        <v>11.44447942213377</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>5.61274696040666</v>
+        <v>-0.6412333728237485</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>20.08779083624326</v>
+        <v>13.93682437855055</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>24.28995220761457</v>
+        <v>18.05959333326005</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>9.949036265669839</v>
+        <v>-1.22199630545235</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>23.33795409951665</v>
+        <v>27.32302091648818</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>27.24527025783095</v>
+        <v>28.10101825152701</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>28.43312503433247</v>
+        <v>28.22568764660177</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>33.08805190000319</v>
+        <v>32.36821115038607</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>35.08676717348784</v>
+        <v>34.79900049301729</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>20.17590996945484</v>
+        <v>6.361630367667814</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>33.33752506211854</v>
+        <v>21.60252122325203</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>37.06321951829539</v>
+        <v>26.55084181111231</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>10.3809940682537</v>
+        <v>2.682637304926274</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>24.47163976146447</v>
+        <v>9.071485397773031</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>28.49463028811978</v>
+        <v>17.34588685857163</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>11.26690067952449</v>
+        <v>-6.664758576057736</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>25.92821346174472</v>
+        <v>6.510541910083489</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>30.21982373451035</v>
+        <v>16.75504654616971</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>15.74270230780918</v>
+        <v>-8.756749048869935</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>29.30366568644105</v>
+        <v>20.88494188693436</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>33.2934402216874</v>
+        <v>33.00882237110615</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>34.416514935464</v>
+        <v>17.34550435194025</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>39.14372369086981</v>
+        <v>25.54578502205437</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>41.19444233399253</v>
+        <v>30.12980303885651</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>26.11287221690717</v>
+        <v>0.8245058424002849</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>39.45597973440964</v>
+        <v>28.92081757396871</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>43.25635886742513</v>
+        <v>33.02683213264667</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>20.0843453812733</v>
+        <v>13.5778134652697</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>34.08467019990479</v>
+        <v>28.24629547288673</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>38.07980335231183</v>
+        <v>34.05074403026053</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>21.51814299609764</v>
+        <v>1.308146614108765</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>36.08525474997352</v>
+        <v>26.18127258685099</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>40.35125891687505</v>
+        <v>32.62953575620453</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>26.00844536061157</v>
+        <v>2.534183529499998</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>39.48085224123282</v>
+        <v>44.37576264406069</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>43.44598218795636</v>
+        <v>53.1021602509088</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>44.95824890640049</v>
+        <v>50.90157367011427</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>49.65039949059887</v>
+        <v>59.58525738966681</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>51.68341033695482</v>
+        <v>65.94814365910607</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>36.62468056943401</v>
+        <v>17.04810915547996</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>49.88990692105138</v>
+        <v>57.3560731195348</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>53.66565728344254</v>
+        <v>61.12718547013212</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>1.012818641900193</v>
+        <v>-0.5796359309025974</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>14.82936242427594</v>
+        <v>-1.214414907476296</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>18.72868215599694</v>
+        <v>-2.428164018995673</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>1.836770445894494</v>
+        <v>-6.97253227619855</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>16.20394138532718</v>
+        <v>1.0872216593513</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>20.36757400595427</v>
+        <v>3.095507355021439</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>6.124454387865434</v>
+        <v>-9.06700028117784</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>19.41372383141095</v>
+        <v>13.27991729511582</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>23.28507290220458</v>
+        <v>11.0560558351752</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>24.45840907116334</v>
+        <v>11.12162849515711</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>29.07920677353836</v>
+        <v>12.95093496336897</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>31.06149247184941</v>
+        <v>14.79618265148726</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>16.28181365207168</v>
+        <v>-3.635663686293341</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>29.34465262118944</v>
+        <v>3.300625257378798</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>33.03511148153834</v>
+        <v>5.652788518205384</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>6.76162373592647</v>
+        <v>0.03416511582842929</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>20.74794144901169</v>
+        <v>1.502794852959724</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>24.73405897267205</v>
+        <v>6.848221311607958</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>7.548457425124028</v>
+        <v>-8.910709399954996</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>22.1014608218634</v>
+        <v>-2.151508453622611</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>26.35382160800713</v>
+        <v>5.918152312771568</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>11.97480832730625</v>
+        <v>-12.51741738687979</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>25.43573501801447</v>
+        <v>10.9852406750466</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>29.38888161702068</v>
+        <v>19.94600760400975</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>30.49794760747366</v>
+        <v>4.892002147209453</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>35.19079366074634</v>
+        <v>11.08363208664288</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>37.22467598918785</v>
+        <v>14.68398101919958</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>22.27435549765679</v>
+        <v>-4.977983013286192</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>35.51814374853453</v>
+        <v>14.85116613418462</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>39.28270737963504</v>
+        <v>16.20286454989444</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>16.48903302964119</v>
+        <v>13.1549367409858</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>30.38590333679135</v>
+        <v>22.58206829483051</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>34.34480671097258</v>
+        <v>25.78504709992929</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>17.82029812033271</v>
+        <v>0.9939893662078845</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>32.27999241556232</v>
+        <v>19.1116700030568</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>36.50743066800584</v>
+        <v>23.70402059842378</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>22.26181722040665</v>
+        <v>0.9754288861570473</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>35.63502841038976</v>
+        <v>36.32456744846836</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>39.56415791436779</v>
+        <v>42.2590455753875</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>41.05887397329899</v>
+        <v>40.41587835440724</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>45.71701163663042</v>
+        <v>47.15570970656576</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>47.73363216440104</v>
+        <v>52.69822180800891</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>32.80495457671493</v>
+        <v>13.56826535459614</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>45.97162271475923</v>
+        <v>45.14741296115675</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>49.71218810264272</v>
+        <v>46.46114644487592</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>13.028811513616</v>
+        <v>16.82555833354739</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>27.12995528364958</v>
+        <v>25.25453623578763</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>31.17961986604829</v>
+        <v>28.86578406287087</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>14.10370698600854</v>
+        <v>6.99341007911697</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>28.76644329328628</v>
+        <v>28.9901880916881</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>33.08867062938278</v>
+        <v>33.63575472344154</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>18.56693962682538</v>
+        <v>9.129242423412776</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>32.12736285238573</v>
+        <v>42.86128596692571</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>36.14710175346295</v>
+        <v>46.53485550634109</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>37.42324742881703</v>
+        <v>46.96858872815731</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>42.13896652196287</v>
+        <v>50.47062046319682</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>44.20220311397129</v>
+        <v>54.76975695441131</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>29.03525379148784</v>
+        <v>24.3969395106778</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>42.36579821408709</v>
+        <v>43.24319545018783</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>46.20432692186093</v>
+        <v>53.13378569915962</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>18.86048981099098</v>
+        <v>10.70495445923002</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>33.13347369872014</v>
+        <v>22.09108130112342</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>37.27374039901686</v>
+        <v>32.12558134457508</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>19.89541628938588</v>
+        <v>-1.272433700000974</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>34.74631221576181</v>
+        <v>19.6537765337239</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>39.16129385895968</v>
+        <v>30.30618662964768</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>24.49871719034614</v>
+        <v>-1.241414694052324</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>38.23293494056193</v>
+        <v>34.47484428331545</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>42.33816579111955</v>
+        <v>49.5336853746097</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>43.54711544206978</v>
+        <v>34.42774341916017</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>48.33646096776982</v>
+        <v>42.27431316665117</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>50.45350095798855</v>
+        <v>49.02535890213538</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>35.11225900390065</v>
+        <v>16.30908985960265</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>48.6267837504031</v>
+        <v>49.30107785245924</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>52.54257228982618</v>
+        <v>57.68424444984031</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>28.53764936041686</v>
+        <v>19.35079798885305</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>42.72031379211041</v>
+        <v>37.32513758636277</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>46.83154106618026</v>
+        <v>45.71620990239323</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>30.12891447877623</v>
+        <v>4.767164347477646</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>44.88576544725181</v>
+        <v>35.3266991344148</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>49.27372150271085</v>
+        <v>43.16586282012015</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>34.74706098705217</v>
+        <v>7.577806141488551</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>48.39279315950055</v>
+        <v>53.82555968932773</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>52.47209092495848</v>
+        <v>66.3943003884708</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>54.07476785951721</v>
+        <v>64.98480718420878</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>58.82861123957714</v>
+        <v>72.46228976847969</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>60.92688289208141</v>
+        <v>81.97602998551021</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>45.60810716032964</v>
+        <v>29.2643193365431</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>59.04531618529396</v>
+        <v>72.39105065827518</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>62.93517862214335</v>
+        <v>81.88382421921098</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>9.105024206128391</v>
+        <v>21.56828095674329</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>23.04159226403922</v>
+        <v>36.347447295142</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>26.97351991631156</v>
+        <v>39.23785225912884</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>10.11268197741039</v>
+        <v>14.82387541016119</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>24.60662024610355</v>
+        <v>40.3958755794895</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>28.80418888045106</v>
+        <v>46.05540613927836</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>14.45814427779335</v>
+        <v>17.35905559358009</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>27.86463814499776</v>
+        <v>57.02699348570404</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>31.7679287146435</v>
+        <v>59.38856811446219</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>32.93977543905707</v>
+        <v>60.24660723335826</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>37.59828254900631</v>
+        <v>66.48618665738037</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>39.59489801574969</v>
+        <v>68.82043353005575</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>24.65732013432968</v>
+        <v>23.3597166977837</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>37.83603006509987</v>
+        <v>53.12171135186726</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>41.55706361505725</v>
+        <v>59.83489115112765</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>14.75647850906918</v>
+        <v>16.64370033380412</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>28.8619521286135</v>
+        <v>33.31035510702115</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>32.88105466056093</v>
+        <v>43.00848757506792</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>15.7243208936711</v>
+        <v>6.726221823790368</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>30.40321825259554</v>
+        <v>30.69009414641123</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>34.68989444902031</v>
+        <v>42.63341247875927</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>20.20896889572757</v>
+        <v>7.740544683546787</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>33.78627333765264</v>
+        <v>48.32248096394231</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>37.77171754364686</v>
+        <v>62.2080336839568</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>38.87968540851777</v>
+        <v>46.62929936301067</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>43.61009286017932</v>
+        <v>57.04431619415523</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>45.65867159387462</v>
+        <v>61.88912299297861</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>30.55166197295998</v>
+        <v>15.75065330565319</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>43.9106758761514</v>
+        <v>58.06661595665953</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>47.70615741092043</v>
+        <v>64.2063726969168</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>24.25470876083727</v>
+        <v>18.16066490659243</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>38.2683787221203</v>
+        <v>42.7671212201552</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>42.26056535751236</v>
+        <v>50.23059948959711</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>25.76708748041515</v>
+        <v>5.443446400778171</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>40.35022023644845</v>
+        <v>40.71346238635586</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>44.61223826679007</v>
+        <v>49.0665051511745</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>30.26472881002288</v>
+        <v>9.347874935986439</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>43.75203782874385</v>
+        <v>61.70923068143601</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>47.71372585087312</v>
+        <v>72.46853669663709</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>49.20979922265877</v>
+        <v>69.79821687666517</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>53.90500861631108</v>
+        <v>80.75002346904132</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>55.93606043971206</v>
+        <v>87.68189218709695</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>40.85373207699602</v>
+        <v>21.58778904819799</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>54.13359711878022</v>
+        <v>76.05117187314706</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>57.90530233810971</v>
+        <v>82.12697857166116</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>17.09058389224547</v>
+        <v>15.46186336869617</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>31.11684155227051</v>
+        <v>32.81571416763707</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>35.11503879422131</v>
+        <v>35.74292487806905</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>18.26823737177176</v>
+        <v>8.32685115503638</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>32.85430500395936</v>
+        <v>40.21931533267046</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>37.12137046739861</v>
+        <v>44.19024365251401</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>22.71649979676825</v>
+        <v>10.88888825646934</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>36.20628315378465</v>
+        <v>55.37036251238511</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>40.1747058896174</v>
+        <v>58.22616484202639</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>41.47104100164007</v>
+        <v>57.88100702267268</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>46.15768433704243</v>
+        <v>63.58370488587106</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>48.19652346534261</v>
+        <v>66.74109586954619</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>33.1205953504203</v>
+        <v>20.91146664123788</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>46.37834764335351</v>
+        <v>51.62836164993182</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>50.16936539246606</v>
+        <v>60.81485324969664</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>22.82792200307544</v>
+        <v>18.09982531216333</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>37.02274363066261</v>
+        <v>38.49403357141234</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>41.10982636036194</v>
+        <v>47.84001608219519</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>23.96297773305815</v>
+        <v>8.146771529333918</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>38.73366616079895</v>
+        <v>39.04855423893521</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>43.09169706689187</v>
+        <v>49.1104224708</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>28.55054058831185</v>
+        <v>8.809879264062701</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>42.21083678798772</v>
+        <v>55.35645488877246</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>46.26308708480144</v>
+        <v>69.63079402877888</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>47.49419757810983</v>
+        <v>53.70339846173313</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>52.25334449688386</v>
+        <v>63.850941441388</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>54.34520710365462</v>
+        <v>69.8645968384743</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>39.09845103304542</v>
+        <v>22.30508283535006</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>52.53707089945438</v>
+        <v>67.72969829571461</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>56.4038425540783</v>
+        <v>75.17038862960341</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>32.22902480731936</v>
+        <v>18.43559627918798</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>46.3328177089393</v>
+        <v>45.26290878388151</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>50.39097627784859</v>
+        <v>52.67017815011481</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>33.9131936429681</v>
+        <v>5.64720401784875</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>48.58909731857067</v>
+        <v>46.05169644746535</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>52.92011431811601</v>
+        <v>52.92290207099673</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>38.51453196817683</v>
+        <v>8.845957784031427</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>52.0856620936387</v>
+        <v>65.75745529642906</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>56.11200027894613</v>
+        <v>77.22046392134881</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>57.73325594398482</v>
+        <v>75.06265864876163</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>62.45696193702297</v>
+        <v>84.84765166832211</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>64.53012552290531</v>
+        <v>93.17897886367304</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>49.30761751789881</v>
+        <v>25.95347263601063</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>62.6684357792971</v>
+        <v>81.77712058773194</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>66.5092521255802</v>
+        <v>89.77074813302674</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>2.060005767987004</v>
+        <v>23.92319128552471</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>16.56282497517823</v>
+        <v>37.35269416312157</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>20.69905913861162</v>
+        <v>39.41254253200644</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>3.052672600341992</v>
+        <v>21.97987771333156</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>18.13332212659973</v>
+        <v>49.89566185303671</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>22.54819796828758</v>
+        <v>53.34911362870993</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>7.654391114405829</v>
+        <v>19.1061310097317</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>21.60193270727375</v>
+        <v>58.58881132784872</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>25.70715792736074</v>
+        <v>60.75276516432923</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>27.11309709899527</v>
+        <v>61.23384853371827</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>31.96319003481125</v>
+        <v>64.99208914321666</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>34.07491467772304</v>
+        <v>68.01091912818488</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>18.55603109475294</v>
+        <v>30.37087700984937</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>32.26498813097853</v>
+        <v>53.09508593970774</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>36.18734616045305</v>
+        <v>63.58718898245804</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>8.061852970710508</v>
+        <v>23.72690711150999</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>22.73914852247531</v>
+        <v>40.05004275053027</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>26.96712258421157</v>
+        <v>48.46870911216156</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>9.011356504752946</v>
+        <v>20.29389400399283</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>24.28310069496849</v>
+        <v>46.82997378938695</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>28.79185671228339</v>
+        <v>56.36006544156807</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>13.75865985086545</v>
+        <v>14.43507932335162</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>27.88273510475911</v>
+        <v>55.84606062673105</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>32.07444079486844</v>
+        <v>69.32726592336603</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>33.41308111492076</v>
+        <v>54.31163689613432</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>38.33829963808671</v>
+        <v>62.4531561001544</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>40.50468051811042</v>
+        <v>68.0622543543122</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>24.80776247812906</v>
+        <v>28.45646807808048</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>38.70397229919038</v>
+        <v>65.61420913903247</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>42.70459903923105</v>
+        <v>74.29836922833802</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>18.15425770540248</v>
+        <v>25.8966925787857</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>32.7377897267274</v>
+        <v>48.23278660862233</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>36.9365512733476</v>
+        <v>54.88849719967679</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>19.67831886885642</v>
+        <v>19.55954235111174</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>34.85240736128326</v>
+        <v>55.03672668799992</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>39.33405080965063</v>
+        <v>61.57775845629409</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>24.44244202562805</v>
+        <v>16.48120599133448</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>38.47461542855487</v>
+        <v>67.8256982660301</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>42.64027888230582</v>
+        <v>78.72317008649803</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>44.38316232565441</v>
+        <v>78.01070643418321</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>49.27202754053468</v>
+        <v>85.43491027728355</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>51.4196698109966</v>
+        <v>93.74376718898942</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>35.74471264929078</v>
+        <v>34.64098800196912</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>49.56080955787223</v>
+        <v>81.32467295034299</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>53.53521578038289</v>
+        <v>90.96785912152465</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>12.81383278048046</v>
+        <v>14.79524697514442</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>26.88082490998755</v>
+        <v>31.15633813249001</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>30.86142193097728</v>
+        <v>34.68010691016404</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>13.93196593631248</v>
+        <v>8.080368357324303</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>28.56221431115994</v>
+        <v>35.94078302786183</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>32.81077877172404</v>
+        <v>41.79804398287506</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>18.34605068588512</v>
+        <v>9.866830610559944</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>31.87785485026604</v>
+        <v>52.2226433643438</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>35.82872505473377</v>
+        <v>55.24461385123361</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>37.05700018433362</v>
+        <v>56.70140353832265</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>41.75814666996479</v>
+        <v>62.49149872796293</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>43.7826732887268</v>
+        <v>65.88906197810105</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>28.68544393097358</v>
+        <v>17.03420602426836</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>41.98638302180008</v>
+        <v>47.70738438428047</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>45.75631065878061</v>
+        <v>57.14458964511256</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>18.48362648661749</v>
+        <v>11.29951288753718</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>32.7197472492247</v>
+        <v>29.88754058093018</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>36.78834716546653</v>
+        <v>40.14930034105403</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>19.55994068378094</v>
+        <v>0.736797062712057</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>34.37542023686275</v>
+        <v>27.37412407656974</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>38.71397747826872</v>
+        <v>39.36735771631204</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>24.11413642255493</v>
+        <v>1.104149932057496</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>37.81699856669999</v>
+        <v>44.69893518541569</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>41.85081508931214</v>
+        <v>59.32553982136763</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>43.0152348894763</v>
+        <v>44.73581989760389</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>47.78867914489568</v>
+        <v>54.65325719234879</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>49.86583954463826</v>
+        <v>60.65267226231158</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>34.59864802220756</v>
+        <v>11.13378565192851</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>48.08049410970067</v>
+        <v>54.65507624623321</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>51.92560592847538</v>
+        <v>63.33288037752872</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>27.92947900166112</v>
+        <v>11.74152343999559</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>42.0725971074344</v>
+        <v>37.68650282982647</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>46.11395924438689</v>
+        <v>46.12226224676068</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>29.55334458284615</v>
+        <v>-1.594166821013559</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>44.27186388579833</v>
+        <v>35.75064331298613</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>48.58533885824401</v>
+        <v>44.56617727143471</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>34.12015411451274</v>
+        <v>1.381618899650491</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>47.73188894900466</v>
+        <v>56.19786258097311</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>51.7415644860661</v>
+        <v>68.1517393518035</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>53.29688585262743</v>
+        <v>66.59189637726048</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>58.03484575851328</v>
+        <v>76.77191161511114</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>60.09405232236355</v>
+        <v>85.21251456615074</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>44.85252876400463</v>
+        <v>15.63746734313214</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>58.25442612933923</v>
+        <v>70.80011445497725</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>62.07534154472493</v>
+        <v>79.93898687082707</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>10.30152515294349</v>
+        <v>7.953398729628859</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>24.07166790971801</v>
+        <v>14.90728749200626</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>28.03966027835656</v>
+        <v>18.74181664862046</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>11.3242519363855</v>
+        <v>-1.903486985047707</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>25.6432175637667</v>
+        <v>18.35841183375292</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>29.87768677450606</v>
+        <v>23.6283006759265</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>15.68031587897439</v>
+        <v>0.5093520635507645</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.92298402054075</v>
+        <v>32.24935171012244</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>32.8611389430948</v>
+        <v>35.93130515074047</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>34.09262754925584</v>
+        <v>32.73091287531626</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>38.69781283871426</v>
+        <v>36.64418932637348</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>40.72244681275966</v>
+        <v>41.83882359011211</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>25.91035009005825</v>
+        <v>5.987602303464811</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>38.92960004276171</v>
+        <v>24.25999786514983</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>42.69154288658738</v>
+        <v>34.18574173426906</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>16.08770766843066</v>
+        <v>17.00143515585738</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>30.02603084397649</v>
+        <v>27.45815990316548</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>34.08335276963161</v>
+        <v>38.18616025595971</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>17.07411878340042</v>
+        <v>5.513717635125957</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>31.57725612897137</v>
+        <v>25.40632165453827</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>35.90320264565896</v>
+        <v>37.20045532499212</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>21.56734525976104</v>
+        <v>6.1685349486511</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>34.98012047530128</v>
+        <v>40.48843701137942</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>39.00258852343553</v>
+        <v>55.92482143959971</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>40.16948173329743</v>
+        <v>37.50893180715072</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>44.84666217094943</v>
+        <v>45.47868139855065</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>46.92423637932581</v>
+        <v>53.67374764995178</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>31.94070398950378</v>
+        <v>14.60064663518047</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>45.139931951919</v>
+        <v>47.5381399300759</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>48.97818681744604</v>
+        <v>57.1109664649462</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>25.58805748012337</v>
+        <v>19.0413092928154</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>39.43820114341173</v>
+        <v>36.25060224392753</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>43.46706569636519</v>
+        <v>45.37539656719441</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>27.11812030850109</v>
+        <v>4.75742494865311</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>41.52945455063376</v>
+        <v>34.45826180820428</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>45.82889461585244</v>
+        <v>43.4506234642822</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>31.62565183233389</v>
+        <v>8.102094322120948</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>44.95204673086641</v>
+        <v>53.0213292244798</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>48.94909646214301</v>
+        <v>66.01790896087796</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>50.50036402049632</v>
+        <v>60.43057951322656</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>55.14288074857015</v>
+        <v>68.20142201043653</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>57.20193380431705</v>
+        <v>79.41811173122692</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>42.24044347110487</v>
+        <v>20.62221042194416</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>55.36412168530813</v>
+        <v>63.92039413316299</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>59.1769756972917</v>
+        <v>74.77333302766958</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>1.127566671861732</v>
+        <v>10.07493161802408</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>15.61052995357816</v>
+        <v>21.08930818701664</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>19.7544533276345</v>
+        <v>24.94201177412985</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>2.103341995031247</v>
+        <v>5.393403254531464</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>17.16317423339388</v>
+        <v>30.5939391320011</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>21.58621896538525</v>
+        <v>36.23802688968415</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>6.701497909219022</v>
+        <v>3.956404676155259</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>20.6296645467019</v>
+        <v>40.63672033545497</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>24.74251189120437</v>
+        <v>44.74004023444139</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>26.14655064990776</v>
+        <v>44.09053243476434</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>30.99158443699349</v>
+        <v>47.47146315345036</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>33.10650582188066</v>
+        <v>51.72376973640432</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>17.6046252265113</v>
+        <v>15.02174494137971</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>31.29607683101818</v>
+        <v>36.30136665962989</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>35.22537099616637</v>
+        <v>48.28707256702755</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>7.119067910986438</v>
+        <v>9.607922439035221</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>21.77658254658904</v>
+        <v>23.60999295126608</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>26.01267488493854</v>
+        <v>34.0681191437025</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>8.052169203726606</v>
+        <v>3.562489194413317</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>23.30318720093572</v>
+        <v>27.48993642439287</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>27.82057317605706</v>
+        <v>39.51829467280599</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>12.79577437289704</v>
+        <v>-0.7823589518751106</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>26.90055864755303</v>
+        <v>37.90802701493912</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>31.10031374433689</v>
+        <v>53.59491477187909</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>32.43650553870511</v>
+        <v>37.12644559145242</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>37.35668482971863</v>
+        <v>44.93215313207681</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>39.52640992023893</v>
+        <v>51.93627840691038</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>23.84615016494592</v>
+        <v>12.71134181473188</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>37.72489618221071</v>
+        <v>48.40194306705628</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>41.73284716401544</v>
+        <v>58.91900332640354</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>17.25254595244622</v>
+        <v>10.35116812911967</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>31.81668860975741</v>
+        <v>30.40226514513388</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>36.02352032345312</v>
+        <v>39.13405894916637</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>18.76047079097171</v>
+        <v>1.314127268721435</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>33.9142443509041</v>
+        <v>34.20976974995155</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>38.40447116303544</v>
+        <v>43.27456466724739</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>23.52114961123268</v>
+        <v>-0.193143993077868</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>37.53441132385335</v>
+        <v>48.4652624683542</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>41.70808444343004</v>
+        <v>61.59991561096255</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>43.44842666072875</v>
+        <v>59.36902410148038</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>48.33232893250313</v>
+        <v>66.43964486879061</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>50.48329647036691</v>
+        <v>76.21642478202058</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>34.82454709352467</v>
+        <v>17.48410347644266</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>48.62349596179695</v>
+        <v>62.63374638841823</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>52.60519680494815</v>
+        <v>74.24009874838286</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>16.26931300313459</v>
+        <v>21.45173239001021</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>30.2163827691737</v>
+        <v>36.46941376530357</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>34.18530816470459</v>
+        <v>37.50478329548177</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>17.45656671035723</v>
+        <v>13.08330926081057</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>31.95768379436189</v>
+        <v>43.19090513341199</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>36.19484468479062</v>
+        <v>45.31786958970768</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>21.84637550972511</v>
+        <v>16.90055475502113</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>35.25823522779562</v>
+        <v>58.78391771548949</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>39.19865117131125</v>
+        <v>58.80894970844729</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>40.46348024532181</v>
+        <v>63.15698703835305</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>45.12261700536265</v>
+        <v>68.6059407853666</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>47.14207023227448</v>
+        <v>70.43386363628157</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>32.14538651453018</v>
+        <v>27.14252632846622</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>45.32706516763386</v>
+        <v>52.96075084843464</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>49.09141409765179</v>
+        <v>62.25629828569542</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>21.99958873449775</v>
+        <v>21.307794000447</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>36.11579020635711</v>
+        <v>38.66001668384747</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>40.17252455905486</v>
+        <v>45.77149902044202</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>23.14452470677401</v>
+        <v>9.438907028952841</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>37.83082815004713</v>
+        <v>37.92066386947745</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>42.15780678640422</v>
+        <v>45.71494438317039</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>27.67371997013479</v>
+        <v>11.1038335026896</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>41.256611498368</v>
+        <v>54.34078703319203</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>45.27980747708006</v>
+        <v>65.3042635584723</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>46.47969570075304</v>
+        <v>53.54638735639487</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>51.2111160739361</v>
+        <v>63.00459038209608</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>53.28294255000689</v>
+        <v>66.88553784837002</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>38.11612418423097</v>
+        <v>23.91823470018004</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>51.47888866357626</v>
+        <v>63.18171150523604</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>55.31800544069647</v>
+        <v>70.58035028717687</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>31.38147968399791</v>
+        <v>21.9046093078217</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>45.40730394398101</v>
+        <v>46.18409389810195</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>49.43530089502251</v>
+        <v>51.34515824350002</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>33.0742059624783</v>
+        <v>7.779401634915345</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>47.66639130072643</v>
+        <v>46.30212186876913</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>51.96663218906015</v>
+        <v>50.94080028135205</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>37.61597022261964</v>
+        <v>11.85007448217415</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>51.11035684907026</v>
+        <v>65.8442228816797</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>55.10788293449474</v>
+        <v>74.03389914295865</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>56.69696557938464</v>
+        <v>75.95464351971405</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>61.39312514696221</v>
+        <v>85.24508309338934</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>63.44652504498522</v>
+        <v>91.30390663862993</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>48.30428854090921</v>
+        <v>29.34654658883612</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>61.58954033135565</v>
+        <v>79.34978777740254</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>65.40299337044645</v>
+        <v>87.3611725717286</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>13.98210929442165</v>
+        <v>14.71832612103849</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>28.05427485488953</v>
+        <v>31.91345953107812</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>32.03855942442935</v>
+        <v>34.85554843431269</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>15.13092876836802</v>
+        <v>8.921740939016573</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>29.76618726403152</v>
+        <v>38.52351036875187</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>34.01896598453418</v>
+        <v>43.06340484248933</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>19.55164775829242</v>
+        <v>9.876756312553582</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>33.0879959450704</v>
+        <v>53.22072588191666</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>37.0427026800957</v>
+        <v>55.69771220851975</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>38.28132813131647</v>
+        <v>57.70279601664221</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>42.98334201414524</v>
+        <v>64.66775256518046</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>45.01133365837995</v>
+        <v>66.56997984644168</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>29.90185011313902</v>
+        <v>17.49038287360584</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>43.20695081179667</v>
+        <v>49.12424975109722</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>46.98122795435684</v>
+        <v>58.09950800191469</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>19.66027337172771</v>
+        <v>12.16767359234264</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>33.90154949777271</v>
+        <v>31.63217894210449</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>37.97397854980207</v>
+        <v>41.25913391198684</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>20.76690470039742</v>
+        <v>2.553031163916629</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>35.58737725656712</v>
+        <v>30.89840090386024</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>39.93030771429439</v>
+        <v>41.54915445629554</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>25.32781218644812</v>
+        <v>2.124018919910881</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>39.0352012527541</v>
+        <v>46.75633432471146</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>43.07299694735862</v>
+        <v>60.7875957028841</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>44.24767080070961</v>
+        <v>46.77572103403064</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>49.02201735236976</v>
+        <v>57.69315639736227</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>51.10273770228834</v>
+        <v>62.43078762002695</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>35.82324532340171</v>
+        <v>12.67449021095503</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>49.30931799083365</v>
+        <v>57.202768745223</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>53.15887721387956</v>
+        <v>65.29455297713476</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>29.06956342699922</v>
+        <v>9.410767428932743</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>43.21775545505797</v>
+        <v>36.07482422237148</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>47.26289781456713</v>
+        <v>43.91153588263496</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>30.72334878702458</v>
+        <v>-3.006933333390336</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>45.44679426576109</v>
+        <v>35.85934548273546</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>49.76456651721566</v>
+        <v>43.37993448581672</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>35.29680712101541</v>
+        <v>-0.9558023643029543</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>48.91300106598519</v>
+        <v>54.73264885827975</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>52.92658865391344</v>
+        <v>66.1322825576113</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>54.49199726734956</v>
+        <v>64.80665551291871</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>59.23074428415897</v>
+        <v>76.06030917710707</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>61.29350608916936</v>
+        <v>83.30233462096122</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>46.03986775525699</v>
+        <v>13.6032476603004</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>59.44593641463887</v>
+        <v>69.42256846202868</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>63.2712860675357</v>
+        <v>78.1475972028157</v>
       </c>
     </row>
   </sheetData>
